--- a/results/comparaison/WM/depolarization/mean_raw_data.xlsx
+++ b/results/comparaison/WM/depolarization/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,255 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.926920993412116</v>
+        <v>0.9483008473241068</v>
       </c>
       <c r="C2">
-        <v>0.900626987334827</v>
+        <v>0.9237424124690784</v>
       </c>
       <c r="D2">
-        <v>0.9391973380247498</v>
+        <v>0.9124884447577848</v>
       </c>
       <c r="E2">
-        <v>0.9065463879396096</v>
+        <v>0.8979193227186233</v>
       </c>
       <c r="F2">
-        <v>0.9469047685504124</v>
+        <v>0.9280822377304652</v>
+      </c>
+      <c r="G2">
+        <v>0.9555010683579348</v>
+      </c>
+      <c r="H2">
+        <v>0.9541170589732202</v>
+      </c>
+      <c r="I2">
+        <v>0.9592420573358562</v>
+      </c>
+      <c r="J2">
+        <v>0.944253065429269</v>
+      </c>
+      <c r="K2">
+        <v>0.9416294517543052</v>
+      </c>
+      <c r="L2">
+        <v>0.9326905942845672</v>
+      </c>
+      <c r="M2">
+        <v>0.9486027163369236</v>
+      </c>
+      <c r="N2">
+        <v>0.9336213258110814</v>
+      </c>
+      <c r="O2">
+        <v>0.9154599472222076</v>
+      </c>
+      <c r="P2">
+        <v>0.9458351804536252</v>
+      </c>
+      <c r="Q2">
+        <v>0.9546210025631946</v>
+      </c>
+      <c r="R2">
+        <v>0.9495455147034384</v>
+      </c>
+      <c r="S2">
+        <v>0.9377437394403932</v>
+      </c>
+      <c r="T2">
+        <v>0.9296555305106762</v>
+      </c>
+      <c r="U2">
+        <v>0.9234276435238388</v>
+      </c>
+      <c r="V2">
+        <v>0.9357225136741628</v>
+      </c>
+      <c r="W2">
+        <v>0.931024068411434</v>
+      </c>
+      <c r="X2">
+        <v>0.9346049671484792</v>
+      </c>
+      <c r="Y2">
+        <v>0.946486313824222</v>
+      </c>
+      <c r="Z2">
+        <v>0.9331244220938276</v>
+      </c>
+      <c r="AA2">
+        <v>0.9138352902460174</v>
+      </c>
+      <c r="AB2">
+        <v>0.8861632417654137</v>
+      </c>
+      <c r="AC2">
+        <v>0.949104158709666</v>
+      </c>
+      <c r="AD2">
+        <v>0.9422184357062174</v>
+      </c>
+      <c r="AE2">
+        <v>0.9272228830981196</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9227020977856216</v>
-      </c>
-      <c r="C3">
-        <v>0.9054226071675384</v>
-      </c>
-      <c r="D3">
-        <v>0.9308159738123016</v>
+        <v>0.9525155283555266</v>
       </c>
       <c r="E3">
-        <v>0.8940761352241965</v>
+        <v>0.9050958874141812</v>
       </c>
       <c r="F3">
-        <v>0.9495504994899184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.9253027110105716</v>
-      </c>
-      <c r="C4">
-        <v>0.9063365404456608</v>
-      </c>
-      <c r="D4">
-        <v>0.9367684843687836</v>
-      </c>
-      <c r="E4">
-        <v>0.8992834591772995</v>
-      </c>
-      <c r="F4">
-        <v>0.944236475293298</v>
+        <v>0.9213985539408852</v>
+      </c>
+      <c r="G3">
+        <v>0.953275680031337</v>
+      </c>
+      <c r="H3">
+        <v>0.9587015347235276</v>
+      </c>
+      <c r="I3">
+        <v>0.9536823372766108</v>
+      </c>
+      <c r="J3">
+        <v>0.9523211923120168</v>
+      </c>
+      <c r="K3">
+        <v>0.9329716072541518</v>
+      </c>
+      <c r="L3">
+        <v>0.9630472533853131</v>
+      </c>
+      <c r="M3">
+        <v>0.9629972480884093</v>
+      </c>
+      <c r="O3">
+        <v>0.937119445197931</v>
+      </c>
+      <c r="P3">
+        <v>0.9570499062386651</v>
+      </c>
+      <c r="Q3">
+        <v>0.9596977686502074</v>
+      </c>
+      <c r="R3">
+        <v>0.9484685016777776</v>
+      </c>
+      <c r="S3">
+        <v>0.9254479052034156</v>
+      </c>
+      <c r="V3">
+        <v>0.9250380569023956</v>
+      </c>
+      <c r="W3">
+        <v>0.9470300342249686</v>
+      </c>
+      <c r="X3">
+        <v>0.9459657323189476</v>
+      </c>
+      <c r="Y3">
+        <v>0.9376447394653772</v>
+      </c>
+      <c r="Z3">
+        <v>0.9464964454143108</v>
+      </c>
+      <c r="AA3">
+        <v>0.9095622915018132</v>
+      </c>
+      <c r="AB3">
+        <v>0.7683880018099278</v>
+      </c>
+      <c r="AC3">
+        <v>0.9473495173922716</v>
+      </c>
+      <c r="AD3">
+        <v>0.942064375232212</v>
+      </c>
+      <c r="AE3">
+        <v>0.9357820545066012</v>
       </c>
     </row>
   </sheetData>
